--- a/Arrecadacao ate setembro 2020.xlsx
+++ b/Arrecadacao ate setembro 2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Links\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\SEMA\Dep de Mineracao\Volume II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71EF2A2-8D38-4ACE-87BB-C18DD9BFC9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65E7369-CAC1-49D6-B31E-599B9BC82956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" xr2:uid="{F3640211-66C9-4DF8-AD5B-4EC24AD1DDCA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>Água Santa</t>
   </si>
@@ -651,9 +651,6 @@
     <t>Vila Nova do Sul</t>
   </si>
   <si>
-    <t>Arrecadação da CFEM até setembro/2020</t>
-  </si>
-  <si>
     <t>ÁGATA</t>
   </si>
   <si>
@@ -739,6 +736,21 @@
   </si>
   <si>
     <t>TALCO</t>
+  </si>
+  <si>
+    <t>Arrecadação de CFEM 2020 (completo)</t>
+  </si>
+  <si>
+    <t>Arambaré</t>
+  </si>
+  <si>
+    <t>Cerro Grande do Sul</t>
+  </si>
+  <si>
+    <t>Silveira Martins</t>
+  </si>
+  <si>
+    <t>Fazenda Vilanova</t>
   </si>
 </sst>
 </file>
@@ -760,17 +772,53 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -780,10 +828,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,12 +1156,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACD1661-BC98-461B-9475-2EEFEB584CDD}">
-  <dimension ref="A1:AD209"/>
+  <dimension ref="A1:AD213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1125,94 +1180,94 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" t="s">
         <v>208</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>209</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>210</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>211</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>213</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>214</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>215</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>216</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>217</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>218</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>219</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>220</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>221</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>222</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>223</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>224</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>225</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>226</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>227</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>228</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>229</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>230</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>231</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>232</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>233</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>234</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>235</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>236</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.35">
@@ -1220,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>25995.22</v>
+        <v>36388.620000000003</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.35">
@@ -1247,7 +1302,10 @@
         <v>962.49</v>
       </c>
       <c r="J5" s="2">
-        <v>11792.19</v>
+        <v>16060.27</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.35">
@@ -1278,11 +1336,11 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>353</v>
+      <c r="B9" s="2">
+        <v>1399.22</v>
       </c>
       <c r="D9" s="2">
-        <v>384827.37</v>
+        <v>549619.79</v>
       </c>
       <c r="R9" s="1">
         <v>269.26</v>
@@ -1296,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="2">
-        <v>10712.49</v>
+        <v>14483.85</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.35">
@@ -1304,2113 +1362,2170 @@
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>32858.339999999997</v>
+        <v>47796.32</v>
       </c>
       <c r="J11" s="2">
-        <v>11497.61</v>
+        <v>16525.990000000002</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1">
-        <v>856.13</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="E12" s="1">
+        <v>57.33</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2">
-        <v>12633.09</v>
-      </c>
-      <c r="I13" s="1">
-        <v>45.32</v>
-      </c>
-      <c r="S13" s="2">
-        <v>2594573.77</v>
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1080.71</v>
+      </c>
+      <c r="U13" s="1">
+        <v>43.93</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1">
-        <v>56.73</v>
-      </c>
-      <c r="M14" s="1">
-        <v>849.85</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>18120.79</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45.32</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3408646.06</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2671.8</v>
-      </c>
-      <c r="J15" s="2">
-        <v>9455.83</v>
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>56.73</v>
+      </c>
+      <c r="M15" s="1">
+        <v>849.85</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1">
-        <v>221.49</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>2694.16</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>356.57</v>
+        <v>13</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3516.32</v>
+      </c>
+      <c r="J16" s="2">
+        <v>12372.8</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="2">
-        <v>12834.47</v>
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
+        <v>245.01</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>5405.74</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>585.15</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5117.99</v>
-      </c>
-      <c r="E18" s="1">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="J18" s="2">
+        <v>15825.17</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>2133.52</v>
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5978.02</v>
+      </c>
+      <c r="E19" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="2">
-        <v>177087.23</v>
+        <v>17</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2979.78</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" s="2">
-        <v>4276.3999999999996</v>
+        <v>216475.3</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2830.56</v>
+        <v>19</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6049.15</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2">
-        <v>12032.37</v>
-      </c>
-      <c r="S23" s="2">
-        <v>525840.03</v>
-      </c>
-      <c r="W23" s="2">
-        <v>2065.64</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>30714.53</v>
-      </c>
-      <c r="AB23" s="2">
-        <v>2196.67</v>
+        <v>20</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3967.92</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="2">
-        <v>82491.600000000006</v>
-      </c>
-      <c r="O24" s="2">
-        <v>200443.35</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>6349.39</v>
+        <v>21</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24880.400000000001</v>
+      </c>
+      <c r="S24" s="2">
+        <v>568786.64</v>
+      </c>
+      <c r="W24" s="2">
+        <v>2809.63</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>43953.45</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>2375</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="2">
-        <v>12430.61</v>
-      </c>
-      <c r="J25" s="2">
-        <v>26149.99</v>
+        <v>22</v>
+      </c>
+      <c r="M25" s="2">
+        <v>116285.41</v>
+      </c>
+      <c r="O25" s="2">
+        <v>250819.04</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>6816.09</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2">
-        <v>45759.01</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2709.83</v>
-      </c>
-      <c r="S26" s="2">
-        <v>494708.02</v>
-      </c>
-      <c r="AC26" s="2">
-        <v>48462.97</v>
+        <v>15105.56</v>
+      </c>
+      <c r="J26" s="2">
+        <v>40976.82</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>559.6</v>
-      </c>
-      <c r="AB27" s="2">
-        <v>2725.4</v>
+        <v>24</v>
+      </c>
+      <c r="E27" s="2">
+        <v>55467.96</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3433.03</v>
+      </c>
+      <c r="S27" s="2">
+        <v>619145.86</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>64736.44</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2">
-        <v>13948.59</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1773.12</v>
-      </c>
-      <c r="J28" s="2">
-        <v>90376</v>
+        <v>25</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>646.5</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>2725.4</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="1">
-        <v>94.61</v>
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <v>19542.509999999998</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1856.45</v>
       </c>
       <c r="J29" s="2">
-        <v>4765.54</v>
+        <v>130051.05</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" s="2">
-        <v>276943.81</v>
-      </c>
-      <c r="S30" s="2">
-        <v>2505230.2200000002</v>
-      </c>
-      <c r="U30" s="2">
-        <v>49963.3</v>
+        <v>27</v>
+      </c>
+      <c r="I30" s="1">
+        <v>94.61</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6808.29</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2">
-        <v>70959.89</v>
-      </c>
-      <c r="J31" s="2">
-        <v>11787.32</v>
+        <v>28</v>
+      </c>
+      <c r="M31" s="2">
+        <v>332592.90000000002</v>
+      </c>
+      <c r="S31" s="2">
+        <v>3446906.13</v>
+      </c>
+      <c r="U31" s="2">
+        <v>71663.509999999995</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1390.35</v>
-      </c>
-      <c r="I32" s="1">
-        <v>175.18</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>27.74</v>
+        <v>29</v>
+      </c>
+      <c r="C32" s="2">
+        <v>94569.600000000006</v>
+      </c>
+      <c r="J32" s="2">
+        <v>14916.96</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1118.04</v>
-      </c>
-      <c r="E33" s="1">
-        <v>90.06</v>
+        <v>30</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1670.88</v>
+      </c>
+      <c r="I33" s="1">
+        <v>192.68</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>27.74</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="2">
-        <v>17756.41</v>
-      </c>
-      <c r="I34" s="2">
-        <v>4603.03</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>96166.65</v>
-      </c>
-      <c r="AB34" s="2">
-        <v>16172.74</v>
+        <v>31</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1118.04</v>
+      </c>
+      <c r="E34" s="1">
+        <v>95.93</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2">
-        <v>29709.37</v>
-      </c>
-      <c r="F35" s="1">
-        <v>268.08</v>
+        <v>24927.97</v>
       </c>
       <c r="I35" s="2">
-        <v>35464.42</v>
-      </c>
-      <c r="J35" s="2">
-        <v>38768.14</v>
+        <v>4830.03</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>112813.09</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>22212.47</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E36" s="2">
+        <v>34703.11</v>
+      </c>
+      <c r="F36" s="1">
+        <v>287.58</v>
+      </c>
+      <c r="I36" s="2">
+        <v>38191.19</v>
       </c>
       <c r="J36" s="2">
-        <v>5324.82</v>
+        <v>47532.72</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1093.25</v>
+        <v>34</v>
+      </c>
+      <c r="J37" s="2">
+        <v>6648.5</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1011.01</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>516.54</v>
+        <v>35</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1312.12</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="1">
-        <v>37.36</v>
+        <v>36</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1253.4100000000001</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>548.29999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="1">
-        <v>710.75</v>
-      </c>
-      <c r="J40" s="2">
-        <v>16940.759999999998</v>
+        <v>37</v>
+      </c>
+      <c r="E40" s="1">
+        <v>37.36</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="I41" s="1">
+        <v>848.41</v>
       </c>
       <c r="J41" s="2">
-        <v>29255.72</v>
+        <v>18600.72</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J42" s="2">
-        <v>12962.82</v>
+        <v>36209.449999999997</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="2">
-        <v>21014.28</v>
-      </c>
-      <c r="I43" s="1">
-        <v>575.52</v>
+        <v>40</v>
       </c>
       <c r="J43" s="2">
-        <v>50109.42</v>
-      </c>
-      <c r="K43" s="2">
-        <v>195519.43</v>
+        <v>19333.21</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="2">
-        <v>8539.68</v>
+        <v>41</v>
+      </c>
+      <c r="C44" s="2">
+        <v>31258.43</v>
       </c>
       <c r="I44" s="1">
-        <v>93.21</v>
-      </c>
-      <c r="AB44" s="2">
-        <v>2402.56</v>
+        <v>810.28</v>
+      </c>
+      <c r="J44" s="2">
+        <v>66538.570000000007</v>
+      </c>
+      <c r="K44" s="2">
+        <v>288293.82</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E45" s="2">
+        <v>12196.04</v>
       </c>
       <c r="I45" s="2">
-        <v>3853.96</v>
+        <v>3161.15</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>2402.56</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="2">
-        <v>44203.32</v>
+        <v>43</v>
+      </c>
+      <c r="I46" s="2">
+        <v>5184.17</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="1">
-        <v>624.12</v>
-      </c>
-      <c r="G47" s="2">
-        <v>152771.04</v>
-      </c>
-      <c r="I47" s="1">
-        <v>10.81</v>
-      </c>
-      <c r="S47" s="2">
-        <v>8224.44</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1446.9</v>
+      </c>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="2">
-        <v>11071.98</v>
-      </c>
-      <c r="E48" s="1">
-        <v>388.9</v>
+        <v>44</v>
+      </c>
+      <c r="J48" s="2">
+        <v>57590.1</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1384.37</v>
+      </c>
+      <c r="G49" s="2">
+        <v>206841.94</v>
       </c>
       <c r="I49" s="1">
-        <v>778.13</v>
+        <v>10.81</v>
+      </c>
+      <c r="S49" s="2">
+        <v>8224.44</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="J50" s="2">
-        <v>81717.11</v>
+        <v>46</v>
+      </c>
+      <c r="C50" s="2">
+        <v>13845.03</v>
+      </c>
+      <c r="E50" s="1">
+        <v>388.9</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="2">
-        <v>30808.639999999999</v>
-      </c>
-      <c r="I51" s="2">
-        <v>1116.6600000000001</v>
-      </c>
-      <c r="U51" s="2">
-        <v>2807.75</v>
+        <v>47</v>
+      </c>
+      <c r="I51" s="1">
+        <v>875.57</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="2">
-        <v>12622.74</v>
-      </c>
-      <c r="R52" s="1">
-        <v>399.8</v>
+        <v>48</v>
+      </c>
+      <c r="J52" s="2">
+        <v>90585.47</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="J53" s="2">
-        <v>3467.42</v>
+        <v>49</v>
+      </c>
+      <c r="E53" s="2">
+        <v>69939.14</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1282.55</v>
+      </c>
+      <c r="U53" s="2">
+        <v>6684.68</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" s="1">
-        <v>540.64</v>
-      </c>
-      <c r="AB54" s="1">
-        <v>144.52000000000001</v>
+        <v>50</v>
+      </c>
+      <c r="D54" s="2">
+        <v>18905.54</v>
+      </c>
+      <c r="R54" s="1">
+        <v>399.8</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J55" s="2">
-        <v>7399.48</v>
+        <v>5312.16</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="K56" s="2">
-        <v>14366.89</v>
+        <v>52</v>
+      </c>
+      <c r="I56" s="1">
+        <v>600.64</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>4780.59</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="2">
-        <v>2679.36</v>
-      </c>
-      <c r="M57" s="2">
-        <v>5322.84</v>
-      </c>
-      <c r="O57" s="2">
-        <v>1090.1600000000001</v>
-      </c>
-      <c r="P57" s="2">
-        <v>89952.69</v>
+        <v>53</v>
+      </c>
+      <c r="J57" s="2">
+        <v>10202.57</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB58" s="2">
-        <v>3398.45</v>
+        <v>54</v>
+      </c>
+      <c r="K58" s="2">
+        <v>16951.64</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="J59" s="2">
-        <v>8960.44</v>
+        <v>55</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3894.7</v>
+      </c>
+      <c r="M59" s="2">
+        <v>6614.28</v>
+      </c>
+      <c r="O59" s="2">
+        <v>1090.1600000000001</v>
+      </c>
+      <c r="P59" s="2">
+        <v>113160.11</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="I60" s="2">
-        <v>15072.58</v>
-      </c>
-      <c r="Z60" s="2">
-        <v>108150.61</v>
+        <v>56</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>4824.59</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J61" s="2">
-        <v>8442.1</v>
-      </c>
-      <c r="U61" s="1">
-        <v>157.34</v>
-      </c>
-      <c r="AB61" s="1">
-        <v>107.7</v>
+        <v>8960.44</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="V62" s="2">
-        <v>5113.55</v>
+        <v>58</v>
+      </c>
+      <c r="I62" s="2">
+        <v>15766.4</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>134906.13</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J63" s="2">
-        <v>62577.49</v>
+        <v>10229.17</v>
+      </c>
+      <c r="U63" s="1">
+        <v>157.34</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>107.7</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E64" s="1">
-        <v>42.83</v>
-      </c>
-      <c r="J64" s="2">
-        <v>61419.19</v>
+        <v>60</v>
+      </c>
+      <c r="V64" s="2">
+        <v>6070.29</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I65" s="1">
-        <v>741.71</v>
-      </c>
-      <c r="K65" s="2">
-        <v>80611.91</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>876.89</v>
+        <v>61</v>
+      </c>
+      <c r="J65" s="2">
+        <v>81469.649999999994</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="I66" s="1">
-        <v>89.27</v>
+        <v>62</v>
+      </c>
+      <c r="E66" s="1">
+        <v>42.83</v>
       </c>
       <c r="J66" s="2">
-        <v>3117.66</v>
+        <v>73737.289999999994</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="2">
-        <v>2672.17</v>
+        <v>63</v>
       </c>
       <c r="I67" s="1">
-        <v>691.89</v>
-      </c>
-      <c r="J67" s="2">
-        <v>55463.839999999997</v>
+        <v>881.31</v>
       </c>
       <c r="K67" s="2">
-        <v>19956.7</v>
+        <v>122235.9</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>1893.66</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I68" s="1">
-        <v>581.9</v>
+        <v>89.27</v>
       </c>
       <c r="J68" s="2">
-        <v>1712.34</v>
+        <v>3469.42</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="I69" s="2">
-        <v>1814.96</v>
-      </c>
-      <c r="AB69" s="2">
-        <v>2761.81</v>
+        <v>65</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3547.01</v>
+      </c>
+      <c r="I69" s="1">
+        <v>824.85</v>
+      </c>
+      <c r="J69" s="2">
+        <v>76163.899999999994</v>
+      </c>
+      <c r="K69" s="2">
+        <v>22346.68</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="I70" s="1">
+        <v>668.3</v>
       </c>
       <c r="J70" s="2">
-        <v>70020.75</v>
+        <v>1926.15</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="I71" s="1">
-        <v>186.42</v>
-      </c>
-      <c r="J71" s="2">
-        <v>3117.89</v>
+        <v>241</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1">
+        <v>309.29000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="E72" s="2">
-        <v>21213.41</v>
+        <v>67</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1928.97</v>
+      </c>
+      <c r="AB72" s="2">
+        <v>2953.22</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K73" s="2">
-        <v>17100.75</v>
+        <v>68</v>
+      </c>
+      <c r="J73" s="2">
+        <v>101803.35</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1518.58</v>
+        <v>69</v>
+      </c>
+      <c r="I74" s="1">
+        <v>219.9</v>
       </c>
       <c r="J74" s="2">
-        <v>30280.82</v>
+        <v>3117.89</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="J75" s="2">
-        <v>54538</v>
+        <v>70</v>
+      </c>
+      <c r="E75" s="2">
+        <v>26429.54</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="E76" s="2">
-        <v>32533.14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="K76" s="2">
+        <v>22879.83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="D77" s="2">
+        <v>4649.74</v>
       </c>
       <c r="J77" s="2">
-        <v>2767.38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>39013.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="J78" s="2">
-        <v>31576.87</v>
+        <v>73</v>
+      </c>
+      <c r="J78" s="3">
+        <v>74428.320000000007</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="2">
-        <v>25154.78</v>
-      </c>
-      <c r="H79" s="2">
-        <v>3510.63</v>
-      </c>
-      <c r="I79" s="2">
-        <v>8487.7800000000007</v>
-      </c>
-      <c r="J79" s="2">
-        <v>142534.9</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E79" s="2">
+        <v>44311.74</v>
+      </c>
+      <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="J80" s="1">
-        <v>689.55</v>
+        <v>75</v>
+      </c>
+      <c r="J80" s="2">
+        <v>3727.73</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="I81" s="2">
-        <v>12456.26</v>
-      </c>
-      <c r="AB81" s="1">
-        <v>556.73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="J81" s="2">
+        <v>46224.65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C82" s="2">
+        <v>33618.49</v>
+      </c>
+      <c r="H82" s="2">
+        <v>4254.92</v>
+      </c>
+      <c r="I82" s="2">
+        <v>17018.650000000001</v>
       </c>
       <c r="J82" s="2">
-        <v>23514.880000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>201067.89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="1">
-        <v>221.49</v>
+        <v>78</v>
+      </c>
+      <c r="J83" s="5">
+        <v>886.14</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="J84" s="2">
-        <v>11353.81</v>
-      </c>
-      <c r="K84" s="2">
-        <v>28399.119999999999</v>
+        <v>79</v>
+      </c>
+      <c r="I84" s="2">
+        <v>12555.34</v>
+      </c>
+      <c r="J84" s="4"/>
+      <c r="AB84" s="1">
+        <v>556.73</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="2">
-        <v>3345.07</v>
+        <v>80</v>
       </c>
       <c r="J85" s="2">
-        <v>19626.52</v>
-      </c>
-      <c r="AB85" s="1">
-        <v>682.94</v>
+        <v>28999.01</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="2">
-        <v>103751.32</v>
-      </c>
-      <c r="J86" s="2">
-        <v>24174.15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="E86" s="1">
+        <v>245.01</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J87" s="2">
-        <v>3266.1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>11768.62</v>
+      </c>
+      <c r="K87" s="2">
+        <v>46835.38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="I88" s="1">
-        <v>66.760000000000005</v>
+        <v>83</v>
+      </c>
+      <c r="C88" s="2">
+        <v>3345.07</v>
+      </c>
+      <c r="J88" s="6">
+        <v>28866.03</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>2225.62</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="I89" s="2">
-        <v>3258.95</v>
+        <v>84</v>
+      </c>
+      <c r="C89" s="2">
+        <v>147942.29</v>
       </c>
       <c r="J89" s="2">
-        <v>8185.42</v>
+        <v>32580.7</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J90" s="2">
-        <v>167448.26</v>
-      </c>
-      <c r="K90" s="2">
-        <v>9051.09</v>
-      </c>
-      <c r="AA90" s="2">
-        <v>17156.63</v>
+        <v>4586.26</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="J91" s="2">
-        <v>5957.46</v>
+        <v>86</v>
+      </c>
+      <c r="I91" s="1">
+        <v>66.760000000000005</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="E92" s="2">
-        <v>14091.17</v>
-      </c>
-      <c r="U92" s="1">
-        <v>40.07</v>
+        <v>87</v>
+      </c>
+      <c r="I92" s="2">
+        <v>5048.97</v>
+      </c>
+      <c r="J92" s="2">
+        <v>11325.6</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="1">
-        <v>746.97</v>
-      </c>
-      <c r="AB93" s="1">
-        <v>391.62</v>
+        <v>88</v>
+      </c>
+      <c r="J93" s="2">
+        <v>191896.28</v>
+      </c>
+      <c r="K93" s="2">
+        <v>16479</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>21155.32</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q94" s="1">
-        <v>470.56</v>
+        <v>89</v>
+      </c>
+      <c r="J94" s="2">
+        <v>7324.35</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="C95" s="2">
-        <v>796054.92</v>
-      </c>
-      <c r="I95" s="1">
-        <v>150.38999999999999</v>
+        <v>90</v>
+      </c>
+      <c r="E95" s="2">
+        <v>16751.75</v>
       </c>
       <c r="J95" s="2">
-        <v>11832.13</v>
-      </c>
-      <c r="U95" s="2">
-        <v>1209.18</v>
+        <v>7606.19</v>
+      </c>
+      <c r="U95" s="1">
+        <v>40.07</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z96" s="2">
-        <v>1226.04</v>
+        <v>91</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1137.75</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>607.77</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="H97" s="1">
-        <v>752.91</v>
+        <v>92</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>470.56</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="E98" s="2">
-        <v>6568.95</v>
+        <v>93</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1095784.44</v>
+      </c>
+      <c r="I98" s="1">
+        <v>150.38999999999999</v>
+      </c>
+      <c r="J98" s="2">
+        <v>20878.080000000002</v>
+      </c>
+      <c r="U98" s="2">
+        <v>1292.7</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="J99" s="2">
-        <v>35415.449999999997</v>
+        <v>94</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>1226.04</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB100" s="2">
-        <v>3269.22</v>
+        <v>95</v>
+      </c>
+      <c r="H100" s="2">
+        <v>1147.97</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="I101" s="1">
-        <v>569.41</v>
+        <v>96</v>
+      </c>
+      <c r="E101" s="2">
+        <v>8827.5</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="2">
-        <v>2646.43</v>
-      </c>
-      <c r="S102" s="2">
-        <v>148586.79999999999</v>
-      </c>
-      <c r="T102" s="2">
-        <v>96457.5</v>
+        <v>97</v>
+      </c>
+      <c r="J102" s="2">
+        <v>47877.58</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="E103" s="1">
-        <v>24.95</v>
-      </c>
-      <c r="F103" s="2">
-        <v>5628.6</v>
-      </c>
-      <c r="H103" s="1">
-        <v>161.26</v>
-      </c>
-      <c r="I103" s="2">
-        <v>8283.44</v>
-      </c>
-      <c r="J103" s="2">
-        <v>297554.49</v>
+        <v>98</v>
       </c>
       <c r="AB103" s="2">
-        <v>2227.29</v>
+        <v>4981.6899999999996</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="J104" s="2">
-        <v>5081.7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="I104" s="1">
+        <v>569.41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="I105" s="2">
-        <v>1347.97</v>
-      </c>
-      <c r="U105" s="1">
-        <v>503.51</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="E105" s="2">
+        <v>5043.04</v>
+      </c>
+      <c r="S105" s="2">
+        <v>155071.65</v>
+      </c>
+      <c r="T105" s="2">
+        <v>96457.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>831.12</v>
+        <v>101</v>
+      </c>
+      <c r="E106" s="5">
+        <v>348.88</v>
+      </c>
+      <c r="F106" s="2">
+        <v>6403.39</v>
+      </c>
+      <c r="H106" s="1">
+        <v>175.8</v>
+      </c>
+      <c r="I106" s="2">
+        <v>8553.44</v>
+      </c>
+      <c r="J106" s="2">
+        <v>362144.98</v>
+      </c>
+      <c r="AB106" s="2">
+        <v>3233.46</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>105</v>
-      </c>
-      <c r="E107" s="2">
-        <v>2168.65</v>
+        <v>102</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="J107" s="2">
+        <v>5081.7</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>106</v>
-      </c>
-      <c r="I108" s="1">
-        <v>256.44</v>
+        <v>103</v>
+      </c>
+      <c r="I108" s="2">
+        <v>1347.97</v>
+      </c>
+      <c r="U108" s="1">
+        <v>503.51</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="J109" s="2">
-        <v>17942.66</v>
+        <v>104</v>
+      </c>
+      <c r="AB109" s="1">
+        <v>831.12</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>108</v>
-      </c>
-      <c r="J110" s="2">
-        <v>4161.1499999999996</v>
+        <v>105</v>
+      </c>
+      <c r="E110" s="2">
+        <v>2483.54</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I111" s="1">
-        <v>411.43</v>
-      </c>
-      <c r="J111" s="1">
-        <v>156.27000000000001</v>
+        <v>266.58</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>107</v>
+      </c>
+      <c r="J112" s="2">
+        <v>24498.73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>108</v>
+      </c>
+      <c r="J113" s="2">
+        <v>5612.63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>109</v>
+      </c>
+      <c r="I114" s="1">
+        <v>411.43</v>
+      </c>
+      <c r="J114" s="1">
+        <v>156.27000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>110</v>
       </c>
-      <c r="H112" s="1">
-        <v>194.12</v>
-      </c>
-      <c r="J112" s="2">
-        <v>26369.86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="H115" s="1">
+        <v>284.04000000000002</v>
+      </c>
+      <c r="J115" s="2">
+        <v>34376.57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C116" s="1">
         <v>447.34</v>
       </c>
-      <c r="I113" s="2">
-        <v>1018.92</v>
-      </c>
-      <c r="J113" s="2">
-        <v>81858.73</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="I116" s="2">
+        <v>1706.2</v>
+      </c>
+      <c r="J116" s="2">
+        <v>106796.35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>112</v>
       </c>
-      <c r="J114" s="2">
+      <c r="J117" s="2">
         <v>3303.78</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+    <row r="118" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>113</v>
       </c>
-      <c r="E115" s="2">
-        <v>10280.98</v>
-      </c>
-      <c r="I115" s="1">
+      <c r="E118" s="2">
+        <v>11507.29</v>
+      </c>
+      <c r="I118" s="1">
         <v>62.26</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+    <row r="119" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>114</v>
       </c>
-      <c r="J116" s="2">
-        <v>29707.75</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="J119" s="2">
+        <v>48907.39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>115</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I120" s="1">
         <v>149.76</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+    <row r="121" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="2">
-        <v>35067.599999999999</v>
-      </c>
-      <c r="H118" s="2">
-        <v>5313.48</v>
-      </c>
-      <c r="I118" s="2">
-        <v>1123.76</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="C121" s="2">
+        <v>50588.54</v>
+      </c>
+      <c r="H121" s="2">
+        <v>6079.7</v>
+      </c>
+      <c r="I121" s="2">
+        <v>1528.26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>117</v>
       </c>
-      <c r="E119" s="2">
-        <v>69083.960000000006</v>
-      </c>
-      <c r="J119" s="2">
-        <v>16129.23</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="E122" s="2">
+        <v>99506.75</v>
+      </c>
+      <c r="J122" s="2">
+        <v>24926.36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>118</v>
       </c>
-      <c r="J120" s="2">
-        <v>9354.01</v>
-      </c>
-      <c r="W120" s="2">
-        <v>27130.89</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="J123" s="2">
+        <v>12575.95</v>
+      </c>
+      <c r="W123" s="2">
+        <v>35575.160000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>119</v>
       </c>
-      <c r="I121" s="2">
-        <v>48582.55</v>
-      </c>
-      <c r="M121" s="2">
-        <v>6302.71</v>
-      </c>
-      <c r="O121" s="2">
-        <v>362766.72</v>
-      </c>
-      <c r="V121" s="2">
-        <v>124163.64</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="I124" s="2">
+        <v>81852.61</v>
+      </c>
+      <c r="M124" s="2">
+        <v>8177.1</v>
+      </c>
+      <c r="O124" s="2">
+        <v>442473.32</v>
+      </c>
+      <c r="V124" s="2">
+        <v>187673.72</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>120</v>
       </c>
-      <c r="I122" s="1">
-        <v>62.8</v>
-      </c>
-      <c r="J122" s="2">
-        <v>83034.31</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="I125" s="1">
+        <v>119</v>
+      </c>
+      <c r="J125" s="2">
+        <v>115758.08</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>121</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H126" s="1">
         <v>130.96</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+    <row r="127" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>122</v>
       </c>
-      <c r="E124" s="2">
-        <v>20720.740000000002</v>
-      </c>
-      <c r="H124" s="2">
-        <v>30988.84</v>
-      </c>
-      <c r="I124" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="J124" s="1">
+      <c r="E127" s="2">
+        <v>28190.95</v>
+      </c>
+      <c r="H127" s="2">
+        <v>42149.17</v>
+      </c>
+      <c r="I127" s="1">
+        <v>24.44</v>
+      </c>
+      <c r="J127" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+    <row r="128" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>123</v>
       </c>
-      <c r="J125" s="1">
+      <c r="J128" s="1">
         <v>4.2</v>
       </c>
-      <c r="U125" s="1">
+      <c r="U128" s="1">
         <v>213.34</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="J126" s="2">
-        <v>157694.21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>125</v>
-      </c>
-      <c r="J127" s="2">
-        <v>4110.6400000000003</v>
-      </c>
-      <c r="AB127" s="1">
-        <v>280.39999999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:28" ht="15" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>126</v>
-      </c>
-      <c r="C128" s="2">
-        <v>12204.69</v>
       </c>
     </row>
     <row r="129" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>127</v>
-      </c>
-      <c r="I129" s="1">
-        <v>180.93</v>
-      </c>
-      <c r="M129" s="2">
-        <v>20989.7</v>
+        <v>124</v>
+      </c>
+      <c r="J129" s="2">
+        <v>195113.13</v>
       </c>
     </row>
     <row r="130" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="J130" s="2">
+        <v>4110.6400000000003</v>
       </c>
       <c r="AB130" s="1">
-        <v>19.329999999999998</v>
+        <v>280.39999999999998</v>
       </c>
     </row>
     <row r="131" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>129</v>
-      </c>
-      <c r="E131" s="2">
-        <v>15554.87</v>
-      </c>
-      <c r="I131" s="2">
-        <v>2362.48</v>
-      </c>
-      <c r="Z131" s="2">
-        <v>257780.35</v>
-      </c>
-      <c r="AB131" s="1">
-        <v>993.44</v>
+        <v>126</v>
+      </c>
+      <c r="C131" s="2">
+        <v>14757.83</v>
       </c>
     </row>
     <row r="132" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="E132" s="1">
-        <v>140.81</v>
+        <v>127</v>
+      </c>
+      <c r="I132" s="1">
+        <v>180.93</v>
+      </c>
+      <c r="M132" s="2">
+        <v>20989.7</v>
       </c>
     </row>
     <row r="133" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>131</v>
-      </c>
-      <c r="D133" s="2">
-        <v>21178.73</v>
-      </c>
-      <c r="J133" s="2">
-        <v>2926.65</v>
+        <v>128</v>
+      </c>
+      <c r="AB133" s="1">
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>132</v>
-      </c>
-      <c r="I134" s="1">
-        <v>999.5</v>
-      </c>
-      <c r="J134" s="2">
-        <v>31574.58</v>
+        <v>129</v>
+      </c>
+      <c r="E134" s="2">
+        <v>22451.73</v>
+      </c>
+      <c r="I134" s="2">
+        <v>3356.19</v>
+      </c>
+      <c r="Z134" s="2">
+        <v>343380.13</v>
+      </c>
+      <c r="AB134" s="2">
+        <v>1934.37</v>
       </c>
     </row>
     <row r="135" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>133</v>
-      </c>
-      <c r="C135" s="2">
-        <v>1531.53</v>
-      </c>
-      <c r="Z135" s="2">
-        <v>70430.990000000005</v>
+        <v>130</v>
+      </c>
+      <c r="E135" s="1">
+        <v>140.81</v>
       </c>
     </row>
     <row r="136" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>134</v>
-      </c>
-      <c r="I136" s="1">
-        <v>146.15</v>
+        <v>131</v>
+      </c>
+      <c r="D136" s="2">
+        <v>26624.46</v>
+      </c>
+      <c r="J136" s="2">
+        <v>3887.68</v>
       </c>
     </row>
     <row r="137" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB137" s="2">
-        <v>13954.83</v>
+        <v>132</v>
+      </c>
+      <c r="I137" s="2">
+        <v>1049.55</v>
+      </c>
+      <c r="J137" s="2">
+        <v>76206.48</v>
       </c>
     </row>
     <row r="138" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C138" s="2">
-        <v>12585.08</v>
-      </c>
-      <c r="D138" s="1">
-        <v>616.09</v>
-      </c>
-      <c r="J138" s="1">
-        <v>377.4</v>
-      </c>
-      <c r="Q138" s="2">
-        <v>2288.0100000000002</v>
+        <v>2436.4499999999998</v>
+      </c>
+      <c r="Z138" s="2">
+        <v>98430.64</v>
       </c>
     </row>
     <row r="139" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>137</v>
-      </c>
-      <c r="J139" s="2">
-        <v>17673.419999999998</v>
+        <v>134</v>
+      </c>
+      <c r="I139" s="1">
+        <v>179.11</v>
       </c>
     </row>
     <row r="140" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>138</v>
-      </c>
-      <c r="J140" s="1">
-        <v>966.44</v>
+        <v>135</v>
+      </c>
+      <c r="AB140" s="2">
+        <v>20060.669999999998</v>
       </c>
     </row>
     <row r="141" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>139</v>
-      </c>
-      <c r="E141" s="2">
-        <v>19750.28</v>
-      </c>
-      <c r="I141" s="1">
-        <v>125.72</v>
+        <v>136</v>
+      </c>
+      <c r="C141" s="2">
+        <v>14915.2</v>
+      </c>
+      <c r="D141" s="1">
+        <v>616.09</v>
+      </c>
+      <c r="J141" s="1">
+        <v>377.4</v>
+      </c>
+      <c r="Q141" s="2">
+        <v>2551.04</v>
       </c>
     </row>
     <row r="142" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>140</v>
-      </c>
-      <c r="E142" s="2">
-        <v>38144.92</v>
+        <v>137</v>
+      </c>
+      <c r="C142" s="1">
+        <v>227</v>
+      </c>
+      <c r="J142" s="2">
+        <v>23154.959999999999</v>
       </c>
     </row>
     <row r="143" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>141</v>
-      </c>
-      <c r="E143" s="2">
-        <v>36435.910000000003</v>
-      </c>
-      <c r="U143" s="1">
-        <v>7.94</v>
+        <v>138</v>
+      </c>
+      <c r="J143" s="1">
+        <v>966.44</v>
       </c>
     </row>
     <row r="144" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="E144" s="2">
+        <v>27591.85</v>
       </c>
       <c r="I144" s="1">
-        <v>528.04</v>
+        <v>125.72</v>
       </c>
     </row>
     <row r="145" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>143</v>
-      </c>
-      <c r="D145" s="2">
-        <v>1476</v>
+        <v>140</v>
+      </c>
+      <c r="E145" s="2">
+        <v>46324.79</v>
       </c>
     </row>
     <row r="146" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>144</v>
-      </c>
-      <c r="I146" s="2">
-        <v>1437.02</v>
-      </c>
-      <c r="AB146" s="1">
-        <v>42.97</v>
-      </c>
-    </row>
-    <row r="147" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="E146" s="2">
+        <v>53163.23</v>
+      </c>
+      <c r="U146" s="1">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>145</v>
-      </c>
-      <c r="E147" s="2">
-        <v>41614.07</v>
-      </c>
-      <c r="J147" s="2">
-        <v>14281.41</v>
-      </c>
-      <c r="AB147" s="2">
-        <v>6336.4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="I147" s="1">
+        <v>594.11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148" s="1">
-        <v>746.72</v>
-      </c>
-      <c r="J148" s="2">
-        <v>5196.92</v>
-      </c>
-      <c r="Q148" s="2">
-        <v>131719.64000000001</v>
+        <v>143</v>
+      </c>
+      <c r="D148" s="3">
+        <v>1576.2</v>
       </c>
     </row>
     <row r="149" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>147</v>
-      </c>
-      <c r="J149" s="2">
-        <v>13761.5</v>
+        <v>144</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="I149" s="2">
+        <v>1437.02</v>
+      </c>
+      <c r="AB149" s="1">
+        <v>42.97</v>
       </c>
     </row>
     <row r="150" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB150" s="1">
-        <v>229.14</v>
+        <v>145</v>
+      </c>
+      <c r="E150" s="2">
+        <v>55672.800000000003</v>
+      </c>
+      <c r="J150" s="2">
+        <v>17015.97</v>
+      </c>
+      <c r="AB150" s="2">
+        <v>6554.05</v>
       </c>
     </row>
     <row r="151" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="2">
-        <v>69015.460000000006</v>
+        <v>146</v>
+      </c>
+      <c r="B151" s="1">
+        <v>746.72</v>
       </c>
       <c r="J151" s="2">
-        <v>34129.31</v>
-      </c>
-      <c r="AB151" s="1">
-        <v>82.9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>5228.57</v>
+      </c>
+      <c r="Q151" s="2">
+        <v>166445.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>150</v>
-      </c>
-      <c r="E152" s="2">
-        <v>196121.05</v>
-      </c>
-      <c r="I152" s="2">
-        <v>7308.09</v>
+        <v>147</v>
       </c>
       <c r="J152" s="2">
-        <v>10858.12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>20428.169999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>151</v>
-      </c>
-      <c r="I153" s="2">
-        <v>1241.3599999999999</v>
-      </c>
-      <c r="J153" s="2">
-        <v>50037.63</v>
-      </c>
-      <c r="L153" s="2">
-        <v>17823.89</v>
+        <v>148</v>
+      </c>
+      <c r="AB153" s="5">
+        <v>736.27</v>
       </c>
     </row>
     <row r="154" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>152</v>
-      </c>
-      <c r="D154" s="1">
-        <v>18</v>
+        <v>149</v>
+      </c>
+      <c r="C154" s="2">
+        <v>92004.31</v>
       </c>
       <c r="J154" s="2">
-        <v>7191.24</v>
-      </c>
-      <c r="Q154" s="2">
-        <v>10841</v>
+        <v>42857.61</v>
+      </c>
+      <c r="AB154" s="1">
+        <v>82.9</v>
       </c>
     </row>
     <row r="155" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="E155" s="2">
+        <v>261869.74</v>
       </c>
       <c r="I155" s="2">
-        <v>1916.83</v>
+        <v>8776.4599999999991</v>
+      </c>
+      <c r="J155" s="2">
+        <v>12951.35</v>
+      </c>
+      <c r="AB155" s="1">
+        <v>446.28</v>
       </c>
     </row>
     <row r="156" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="I156" s="2">
+        <v>1430.36</v>
       </c>
       <c r="J156" s="2">
-        <v>37315.65</v>
+        <v>72529.88</v>
+      </c>
+      <c r="L156" s="2">
+        <v>20732.07</v>
       </c>
     </row>
     <row r="157" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>155</v>
-      </c>
-      <c r="E157" s="2">
-        <v>47949.279999999999</v>
-      </c>
-      <c r="H157" s="2">
-        <v>6629.85</v>
+        <v>152</v>
+      </c>
+      <c r="D157" s="1">
+        <v>18</v>
       </c>
       <c r="J157" s="2">
-        <v>56677.5</v>
-      </c>
-      <c r="K157" s="2">
-        <v>40560.82</v>
-      </c>
-      <c r="U157" s="1">
-        <v>60.39</v>
-      </c>
-      <c r="AB157" s="2">
-        <v>107327.99</v>
+        <v>9871.86</v>
+      </c>
+      <c r="Q157" s="2">
+        <v>13203.2</v>
       </c>
     </row>
     <row r="158" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>156</v>
-      </c>
-      <c r="J158" s="1">
-        <v>296.27999999999997</v>
+        <v>153</v>
+      </c>
+      <c r="I158" s="2">
+        <v>2296.7800000000002</v>
       </c>
     </row>
     <row r="159" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>157</v>
-      </c>
-      <c r="J159" s="1">
-        <v>143.43</v>
+        <v>154</v>
+      </c>
+      <c r="J159" s="2">
+        <v>49850.51</v>
       </c>
     </row>
     <row r="160" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="E160" s="2">
+        <v>55248.43</v>
+      </c>
+      <c r="H160" s="2">
+        <v>9596.34</v>
       </c>
       <c r="J160" s="2">
-        <v>18427.97</v>
+        <v>63048.54</v>
+      </c>
+      <c r="K160" s="2">
+        <v>57402.080000000002</v>
+      </c>
+      <c r="U160" s="1">
+        <v>60.39</v>
+      </c>
+      <c r="AB160" s="2">
+        <v>136175.81</v>
       </c>
     </row>
     <row r="161" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>159</v>
-      </c>
-      <c r="I161" s="1">
-        <v>520.37</v>
-      </c>
-      <c r="J161" s="2">
-        <v>35118.11</v>
+        <v>156</v>
+      </c>
+      <c r="J161" s="1">
+        <v>400.52</v>
       </c>
     </row>
     <row r="162" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>160</v>
-      </c>
-      <c r="M162" s="2">
-        <v>96188.51</v>
-      </c>
-      <c r="AB162" s="1">
-        <v>113.84</v>
+        <v>157</v>
+      </c>
+      <c r="J162" s="1">
+        <v>143.43</v>
       </c>
     </row>
     <row r="163" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>161</v>
-      </c>
-      <c r="E163" s="2">
-        <v>34396.129999999997</v>
-      </c>
-      <c r="I163" s="1">
-        <v>43.9</v>
-      </c>
-      <c r="U163" s="2">
-        <v>3175.14</v>
-      </c>
-      <c r="AB163" s="1">
-        <v>508.9</v>
+        <v>158</v>
+      </c>
+      <c r="J163" s="2">
+        <v>25887.18</v>
       </c>
     </row>
     <row r="164" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="I164" s="1">
+        <v>634.5</v>
       </c>
       <c r="J164" s="2">
-        <v>17105.599999999999</v>
+        <v>52783.4</v>
       </c>
     </row>
     <row r="165" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>163</v>
-      </c>
-      <c r="J165" s="2">
-        <v>4697.09</v>
+        <v>160</v>
+      </c>
+      <c r="M165" s="2">
+        <v>171630.11</v>
+      </c>
+      <c r="AB165" s="1">
+        <v>113.84</v>
       </c>
     </row>
     <row r="166" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB166" s="2">
-        <v>2238.2800000000002</v>
+        <v>161</v>
+      </c>
+      <c r="E166" s="2">
+        <v>42439.06</v>
+      </c>
+      <c r="I166" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="U166" s="2">
+        <v>3817.47</v>
+      </c>
+      <c r="AB166" s="1">
+        <v>508.9</v>
       </c>
     </row>
     <row r="167" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>165</v>
-      </c>
-      <c r="I167" s="2">
-        <v>28150</v>
+        <v>162</v>
+      </c>
+      <c r="J167" s="2">
+        <v>20581.34</v>
       </c>
     </row>
     <row r="168" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>166</v>
-      </c>
-      <c r="E168" s="2">
-        <v>7971.2</v>
-      </c>
-      <c r="Z168" s="2">
-        <v>70607.520000000004</v>
-      </c>
-      <c r="AB168" s="1">
-        <v>810.76</v>
+        <v>163</v>
+      </c>
+      <c r="J168" s="2">
+        <v>5744.09</v>
       </c>
     </row>
     <row r="169" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>167</v>
-      </c>
-      <c r="J169" s="2">
-        <v>31556.82</v>
+        <v>164</v>
+      </c>
+      <c r="AB169" s="2">
+        <v>3222.6</v>
       </c>
     </row>
     <row r="170" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>168</v>
-      </c>
-      <c r="C170" s="2">
-        <v>13473.17</v>
+        <v>165</v>
       </c>
       <c r="I170" s="2">
-        <v>1619.5</v>
-      </c>
-      <c r="J170" s="2">
-        <v>26623.19</v>
+        <v>32435.83</v>
       </c>
     </row>
     <row r="171" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>169</v>
-      </c>
-      <c r="J171" s="2">
-        <v>16663.82</v>
+        <v>166</v>
+      </c>
+      <c r="E171" s="2">
+        <v>9381.07</v>
+      </c>
+      <c r="Z171" s="2">
+        <v>99248.25</v>
+      </c>
+      <c r="AB171" s="1">
+        <v>929.64</v>
       </c>
     </row>
     <row r="172" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB172" s="1">
-        <v>896.73</v>
+        <v>167</v>
+      </c>
+      <c r="J172" s="2">
+        <v>43235.27</v>
       </c>
     </row>
     <row r="173" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>171</v>
-      </c>
-      <c r="J173" s="1">
-        <v>468.56</v>
+        <v>168</v>
+      </c>
+      <c r="C173" s="2">
+        <v>16809.830000000002</v>
+      </c>
+      <c r="I173" s="2">
+        <v>1936.52</v>
+      </c>
+      <c r="J173" s="2">
+        <v>35047.879999999997</v>
       </c>
     </row>
     <row r="174" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB174" s="1">
-        <v>84.46</v>
+        <v>169</v>
+      </c>
+      <c r="J174" s="2">
+        <v>24155.02</v>
       </c>
     </row>
     <row r="175" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>173</v>
-      </c>
-      <c r="I175" s="2">
-        <v>15042.59</v>
+        <v>170</v>
+      </c>
+      <c r="AB175" s="1">
+        <v>914.62</v>
       </c>
     </row>
     <row r="176" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>174</v>
-      </c>
-      <c r="E176" s="2">
-        <v>12435.14</v>
-      </c>
-      <c r="I176" s="1">
-        <v>169.95</v>
+        <v>171</v>
+      </c>
+      <c r="J176" s="1">
+        <v>468.56</v>
       </c>
     </row>
     <row r="177" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>175</v>
-      </c>
-      <c r="E177" s="1">
-        <v>48.18</v>
+        <v>172</v>
+      </c>
+      <c r="AB177" s="1">
+        <v>84.46</v>
       </c>
     </row>
     <row r="178" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I178" s="2">
-        <v>1409.59</v>
-      </c>
-    </row>
-    <row r="179" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>18568.669999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>177</v>
-      </c>
-      <c r="I179" s="2">
-        <v>3397.28</v>
-      </c>
-    </row>
-    <row r="180" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="E179" s="2">
+        <v>14820.68</v>
+      </c>
+      <c r="I179" s="1">
+        <v>169.95</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>178</v>
-      </c>
-      <c r="J180" s="2">
-        <v>3378.81</v>
+        <v>175</v>
+      </c>
+      <c r="E180" s="5">
+        <v>48.18</v>
       </c>
     </row>
     <row r="181" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q181" s="1">
-        <v>801.77</v>
+        <v>176</v>
+      </c>
+      <c r="E181" s="4"/>
+      <c r="I181" s="2">
+        <v>2222.3000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I182" s="2">
-        <v>2577.25</v>
-      </c>
-      <c r="AB182" s="1">
-        <v>280.89</v>
+        <v>5857.69</v>
       </c>
     </row>
     <row r="183" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>181</v>
-      </c>
-      <c r="H183" s="1">
-        <v>101.51</v>
+        <v>178</v>
+      </c>
+      <c r="J183" s="2">
+        <v>13607.09</v>
       </c>
     </row>
     <row r="184" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>182</v>
-      </c>
-      <c r="E184" s="1">
-        <v>19.23</v>
+        <v>179</v>
+      </c>
+      <c r="Q184" s="1">
+        <v>801.77</v>
       </c>
     </row>
     <row r="185" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>183</v>
-      </c>
-      <c r="J185" s="2">
-        <v>2021.5</v>
+        <v>180</v>
+      </c>
+      <c r="I185" s="2">
+        <v>3135.83</v>
+      </c>
+      <c r="AB185" s="1">
+        <v>381.75</v>
       </c>
     </row>
     <row r="186" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>184</v>
-      </c>
-      <c r="J186" s="2">
-        <v>25666.02</v>
+        <v>181</v>
+      </c>
+      <c r="H186" s="1">
+        <v>111.13</v>
       </c>
     </row>
     <row r="187" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>185</v>
-      </c>
-      <c r="E187" s="2">
-        <v>8857.0499999999993</v>
+        <v>182</v>
+      </c>
+      <c r="E187" s="1">
+        <v>19.23</v>
       </c>
     </row>
     <row r="188" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>186</v>
-      </c>
-      <c r="H188" s="2">
-        <v>98636.02</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E188" s="1"/>
       <c r="J188" s="1">
-        <v>226.06</v>
-      </c>
-      <c r="AB188" s="2">
-        <v>46580.11</v>
+        <v>582.38</v>
       </c>
     </row>
     <row r="189" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>187</v>
-      </c>
-      <c r="E189" s="1">
-        <v>20.88</v>
-      </c>
-      <c r="I189" s="2">
-        <v>5155</v>
-      </c>
-      <c r="AB189" s="1">
-        <v>472.15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+      <c r="J189" s="2">
+        <v>2323.5300000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>188</v>
-      </c>
-      <c r="E190" s="2">
-        <v>8671.5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+      <c r="J190" s="2">
+        <v>38589.47</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB191" s="1">
-        <v>121.88</v>
+        <v>185</v>
+      </c>
+      <c r="E191" s="3">
+        <v>11987.72</v>
       </c>
     </row>
     <row r="192" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>190</v>
-      </c>
-      <c r="E192" s="2">
-        <v>4486.4399999999996</v>
-      </c>
-      <c r="I192" s="2">
-        <v>2971.89</v>
-      </c>
-      <c r="J192" s="2">
-        <v>8383</v>
+        <v>186</v>
+      </c>
+      <c r="E192" s="4"/>
+      <c r="H192" s="2">
+        <v>123701.95</v>
+      </c>
+      <c r="J192" s="1">
+        <v>226.06</v>
+      </c>
+      <c r="AB192" s="2">
+        <v>64100.05</v>
       </c>
     </row>
     <row r="193" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>191</v>
-      </c>
-      <c r="C193" s="1">
-        <v>526.99</v>
+        <v>187</v>
+      </c>
+      <c r="E193" s="1">
+        <v>20.88</v>
+      </c>
+      <c r="I193" s="2">
+        <v>6347.47</v>
+      </c>
+      <c r="AB193" s="1">
+        <v>740.55</v>
       </c>
     </row>
     <row r="194" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>192</v>
-      </c>
-      <c r="C194" s="2">
-        <v>22947.759999999998</v>
-      </c>
-      <c r="E194" s="1">
-        <v>515.72</v>
-      </c>
-      <c r="I194" s="2">
-        <v>1004.76</v>
-      </c>
-      <c r="U194" s="1">
-        <v>661.33</v>
-      </c>
-      <c r="AB194" s="1">
-        <v>89.17</v>
+        <v>188</v>
+      </c>
+      <c r="E194" s="2">
+        <v>11023.05</v>
       </c>
     </row>
     <row r="195" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>193</v>
-      </c>
-      <c r="U195" s="1">
-        <v>427.01</v>
+        <v>189</v>
+      </c>
+      <c r="AB195" s="1">
+        <v>121.88</v>
       </c>
     </row>
     <row r="196" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>194</v>
-      </c>
-      <c r="D196" s="2">
-        <v>6027.88</v>
+        <v>190</v>
+      </c>
+      <c r="E196" s="2">
+        <v>5485.72</v>
+      </c>
+      <c r="I196" s="2">
+        <v>3441.35</v>
+      </c>
+      <c r="J196" s="2">
+        <v>17268.14</v>
       </c>
     </row>
     <row r="197" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>195</v>
-      </c>
-      <c r="E197" s="2">
-        <v>35614.11</v>
-      </c>
-      <c r="K197" s="2">
-        <v>26358.06</v>
+        <v>191</v>
+      </c>
+      <c r="C197" s="1">
+        <v>526.99</v>
       </c>
     </row>
     <row r="198" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>196</v>
-      </c>
-      <c r="E198" s="2">
-        <v>5116.12</v>
-      </c>
-      <c r="H198" s="2">
-        <v>3737.35</v>
-      </c>
-      <c r="J198" s="2">
-        <v>20678.78</v>
-      </c>
-      <c r="U198" s="2">
-        <v>12016.12</v>
+        <v>192</v>
+      </c>
+      <c r="C198" s="2">
+        <v>25408.53</v>
+      </c>
+      <c r="E198" s="1">
+        <v>654.51</v>
+      </c>
+      <c r="I198" s="2">
+        <v>1004.76</v>
+      </c>
+      <c r="U198" s="1">
+        <v>661.33</v>
+      </c>
+      <c r="AB198" s="1">
+        <v>125.33</v>
       </c>
     </row>
     <row r="199" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>197</v>
-      </c>
-      <c r="I199" s="1">
-        <v>243.72</v>
-      </c>
-      <c r="J199" s="2">
-        <v>58399.18</v>
+        <v>193</v>
+      </c>
+      <c r="U199" s="1"/>
+      <c r="AB199" s="1">
+        <v>427.01</v>
       </c>
     </row>
     <row r="200" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>198</v>
-      </c>
-      <c r="I200" s="2">
-        <v>2580.9299999999998</v>
+        <v>194</v>
+      </c>
+      <c r="D200" s="2">
+        <v>8975.58</v>
       </c>
     </row>
     <row r="201" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E201" s="2">
-        <v>4023.88</v>
+        <v>41131.410000000003</v>
+      </c>
+      <c r="K201" s="2">
+        <v>31723.62</v>
       </c>
     </row>
     <row r="202" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>200</v>
-      </c>
-      <c r="I202" s="1">
-        <v>758.4</v>
+        <v>196</v>
+      </c>
+      <c r="E202" s="2">
+        <v>7973.55</v>
+      </c>
+      <c r="H202" s="2">
+        <v>3737.35</v>
       </c>
       <c r="J202" s="2">
-        <v>7347.55</v>
+        <v>60549.93</v>
       </c>
       <c r="U202" s="2">
-        <v>1248.92</v>
+        <v>21606.17</v>
       </c>
     </row>
     <row r="203" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>201</v>
-      </c>
-      <c r="C203" s="1">
-        <v>118.82</v>
+        <v>197</v>
+      </c>
+      <c r="I203" s="1">
+        <v>243.72</v>
       </c>
       <c r="J203" s="2">
-        <v>59842.67</v>
+        <v>97363.16</v>
       </c>
     </row>
     <row r="204" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>202</v>
-      </c>
-      <c r="J204" s="2">
-        <v>5209.97</v>
+        <v>198</v>
+      </c>
+      <c r="I204" s="2">
+        <v>3575.63</v>
       </c>
     </row>
     <row r="205" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>203</v>
-      </c>
-      <c r="J205" s="2">
-        <v>3676.01</v>
+        <v>199</v>
+      </c>
+      <c r="E205" s="2">
+        <v>7059.8</v>
       </c>
     </row>
     <row r="206" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>204</v>
-      </c>
-      <c r="C206" s="2">
-        <v>3081.59</v>
-      </c>
-      <c r="E206" s="2">
-        <v>28493.73</v>
-      </c>
-      <c r="I206" s="2">
-        <v>6114.11</v>
-      </c>
-      <c r="Z206" s="1">
-        <v>795.97</v>
-      </c>
-      <c r="AB206" s="2">
-        <v>18530.98</v>
+        <v>200</v>
+      </c>
+      <c r="E206" s="1">
+        <v>967.27</v>
+      </c>
+      <c r="I206" s="1"/>
+      <c r="J206" s="2">
+        <v>11573.54</v>
+      </c>
+      <c r="U206" s="2">
+        <v>1544.62</v>
       </c>
     </row>
     <row r="207" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C207" s="1">
-        <v>371.34</v>
-      </c>
-      <c r="I207" s="2">
-        <v>1324.27</v>
+        <v>356.99</v>
       </c>
       <c r="J207" s="2">
-        <v>3682.98</v>
+        <v>83329.67</v>
       </c>
     </row>
     <row r="208" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
+        <v>202</v>
+      </c>
+      <c r="J208" s="2">
+        <v>6197.67</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>203</v>
+      </c>
+      <c r="J209" s="2">
+        <v>5055.53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>204</v>
+      </c>
+      <c r="C210" s="2">
+        <v>3593.57</v>
+      </c>
+      <c r="E210" s="2">
+        <v>39811.32</v>
+      </c>
+      <c r="I210" s="2">
+        <v>7168.53</v>
+      </c>
+      <c r="Z210" s="1">
+        <v>988.8</v>
+      </c>
+      <c r="AB210" s="2">
+        <v>21463.599999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>205</v>
+      </c>
+      <c r="C211" s="1">
+        <v>497.82</v>
+      </c>
+      <c r="I211" s="2">
+        <v>1507.21</v>
+      </c>
+      <c r="J211" s="2">
+        <v>4495.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>206</v>
       </c>
-      <c r="J208" s="2">
-        <v>11112.69</v>
-      </c>
-    </row>
-    <row r="209" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
+      <c r="J212" s="2">
+        <v>12677.42</v>
+      </c>
+    </row>
+    <row r="213" spans="1:28" ht="15" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>207</v>
       </c>
-      <c r="N209" s="2">
-        <v>75874.78</v>
-      </c>
-      <c r="Y209" s="1">
-        <v>947.53</v>
+      <c r="N213" s="2">
+        <v>105092.63</v>
+      </c>
+      <c r="Y213" s="2">
+        <v>1625.73</v>
       </c>
     </row>
   </sheetData>
